--- a/regressions_non_hispanic_black_women.xlsx
+++ b/regressions_non_hispanic_black_women.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="215">
   <si>
     <t>term</t>
   </si>
@@ -447,6 +447,102 @@
     <t>128</t>
   </si>
   <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>(Intercept)</t>
   </si>
   <si>
@@ -486,6 +582,9 @@
     <t>log10(URXBP3) ~ weight_perception + RIDAGEYR + SDDSRVYR + URXUCR + BMXBMI + INDFMPIR + sunscreen_usage_ordinal</t>
   </si>
   <si>
+    <t>log10(URXBP3) ~ weight_perception + RIDAGEYR + SDDSRVYR + URXUCR + INDFMPIR + sunscreen_usage_ordinal</t>
+  </si>
+  <si>
     <t>unweighted</t>
   </si>
   <si>
@@ -520,6 +619,9 @@
   </si>
   <si>
     <t>RIDAGEYR + SDDSRVYR + URXUCR + BMXBMI + INDFMPIR + sunscreen_usage_ordinal</t>
+  </si>
+  <si>
+    <t>RIDAGEYR + SDDSRVYR + URXUCR + INDFMPIR + sunscreen_usage_ordinal</t>
   </si>
   <si>
     <t>r.squared</t>
@@ -662,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C2" t="n">
         <v>1.1878195625643189</v>
@@ -683,13 +785,13 @@
         <v>1441.0600517753924</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L2" t="n">
         <v>8.287006859784766</v>
@@ -704,10 +806,10 @@
         <v>1514.0377087338854</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -715,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C3" t="n">
         <v>-0.10420905426486303</v>
@@ -736,13 +838,13 @@
         <v>-21.33329756160083</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J3" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L3" t="n">
         <v>0.5885867461390908</v>
@@ -757,10 +859,10 @@
         <v>9.931316640716403</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q3" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4">
@@ -768,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C4" t="n">
         <v>0.053271046396589666</v>
@@ -789,13 +891,13 @@
         <v>13.05012487341386</v>
       </c>
       <c r="I4" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L4" t="n">
         <v>0.9020324706760288</v>
@@ -810,10 +912,10 @@
         <v>36.97836938984577</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q4" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
@@ -821,7 +923,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C5" t="n">
         <v>-1.1719894814061748E-4</v>
@@ -842,13 +944,13 @@
         <v>-0.026982414181986325</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K5" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L5" t="n">
         <v>0.9909744547804072</v>
@@ -863,10 +965,10 @@
         <v>0.8546607187541384</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q5" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
@@ -874,7 +976,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C6" t="n">
         <v>0.0012411890357356208</v>
@@ -895,13 +997,13 @@
         <v>0.28620311847480373</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K6" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L6" t="n">
         <v>0.956631393697945</v>
@@ -916,10 +1018,10 @@
         <v>5.062990096897488</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q6" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
@@ -927,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C7" t="n">
         <v>0.001898286102571804</v>
@@ -948,13 +1050,13 @@
         <v>0.4380531884117911</v>
       </c>
       <c r="I7" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L7" t="n">
         <v>1.003222654555722</v>
@@ -969,10 +1071,10 @@
         <v>0.5534363723445956</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
@@ -980,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C8" t="n">
         <v>-0.006411825869366833</v>
@@ -1001,13 +1103,13 @@
         <v>-1.465532451168583</v>
       </c>
       <c r="I8" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L8" t="n">
         <v>0.9728437865999243</v>
@@ -1022,10 +1124,10 @@
         <v>-0.1845663749239339</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Q8" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
@@ -1033,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C9" t="n">
         <v>0.961587382647698</v>
@@ -1054,13 +1156,13 @@
         <v>815.3504147331132</v>
       </c>
       <c r="I9" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J9" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K9" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L9" t="n">
         <v>4.2828849034228424</v>
@@ -1075,10 +1177,10 @@
         <v>908.11729920596</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q9" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10">
@@ -1086,7 +1188,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C10" t="n">
         <v>-0.11574567064499407</v>
@@ -1107,13 +1209,13 @@
         <v>-23.395491694155613</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J10" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K10" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L10" t="n">
         <v>0.6503313951160368</v>
@@ -1128,10 +1230,10 @@
         <v>-6.316032346314785</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="Q10" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11">
@@ -1139,7 +1241,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C11" t="n">
         <v>0.05763141593704251</v>
@@ -1160,13 +1262,13 @@
         <v>14.19087898082898</v>
       </c>
       <c r="I11" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J11" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K11" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L11" t="n">
         <v>1.0460553445872238</v>
@@ -1181,10 +1283,10 @@
         <v>23.157426679790202</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="Q11" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12">
@@ -1192,7 +1294,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C12" t="n">
         <v>0.002720432955957073</v>
@@ -1213,13 +1315,13 @@
         <v>0.6283688425534839</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K12" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L12" t="n">
         <v>0.9924997792911487</v>
@@ -1234,10 +1336,10 @@
         <v>2.012484858888466</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q12" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13">
@@ -1245,7 +1347,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C13" t="n">
         <v>0.009739444412326145</v>
@@ -1266,13 +1368,13 @@
         <v>2.26792503311537</v>
       </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L13" t="n">
         <v>0.9587289080670169</v>
@@ -1287,10 +1389,10 @@
         <v>8.832753997837717</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q13" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14">
@@ -1298,7 +1400,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C14" t="n">
         <v>0.0021131509960490504</v>
@@ -1319,13 +1421,13 @@
         <v>0.4877566772332642</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L14" t="n">
         <v>1.0034423636274856</v>
@@ -1340,10 +1442,10 @@
         <v>0.6307345742530339</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q14" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15">
@@ -1351,7 +1453,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C15" t="n">
         <v>-0.005965966451100272</v>
@@ -1372,13 +1474,13 @@
         <v>-1.3643221407995676</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L15" t="n">
         <v>0.9718849368126232</v>
@@ -1393,10 +1495,10 @@
         <v>0.11933648456785795</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q15" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16">
@@ -1404,7 +1506,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C16" t="n">
         <v>1.220876082698745</v>
@@ -1425,13 +1527,13 @@
         <v>1562.9380963268445</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L16" t="n">
         <v>11.319048001534126</v>
@@ -1446,10 +1548,10 @@
         <v>1605.4411362269555</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q16" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
@@ -1457,7 +1559,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C17" t="n">
         <v>-0.11490785135623907</v>
@@ -1478,13 +1580,13 @@
         <v>-23.247567453096863</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L17" t="n">
         <v>0.638306139076449</v>
@@ -1499,10 +1601,10 @@
         <v>-3.9175350908994595</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="Q17" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
@@ -1510,7 +1612,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C18" t="n">
         <v>0.06839753056919506</v>
@@ -1531,13 +1633,13 @@
         <v>17.05703799937566</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L18" t="n">
         <v>1.0056375218228637</v>
@@ -1552,10 +1654,10 @@
         <v>32.84785374021738</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Q18" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
@@ -1563,7 +1665,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C19" t="n">
         <v>-0.0038603308056482117</v>
@@ -1584,13 +1686,13 @@
         <v>-0.8849352106039876</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L19" t="n">
         <v>0.9875470685666591</v>
@@ -1605,10 +1707,10 @@
         <v>-0.520358678499806</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q19" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
@@ -1616,7 +1718,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C20" t="n">
         <v>0.017570568426167003</v>
@@ -1637,13 +1739,13 @@
         <v>4.128729244783624</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L20" t="n">
         <v>1.0060488010061348</v>
@@ -1658,10 +1760,10 @@
         <v>7.601857322867577</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Q20" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
@@ -1669,7 +1771,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C21" t="n">
         <v>0.0018425781623977412</v>
@@ -1690,13 +1792,13 @@
         <v>0.4251705973304487</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L21" t="n">
         <v>1.0034640400061414</v>
@@ -1711,10 +1813,10 @@
         <v>0.5036502020041373</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q21" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
@@ -1722,7 +1824,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C22" t="n">
         <v>-0.006798219618855502</v>
@@ -1743,13 +1845,13 @@
         <v>-1.5531600220280994</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L22" t="n">
         <v>0.9758651479327645</v>
@@ -1764,10 +1866,10 @@
         <v>-0.6734526062775714</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q22" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
@@ -1775,7 +1877,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C23" t="n">
         <v>1.1201984125437336</v>
@@ -1796,13 +1898,13 @@
         <v>1218.8591372533072</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J23" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L23" t="n">
         <v>7.406728329929724</v>
@@ -1817,10 +1919,10 @@
         <v>1285.9458575566525</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q23" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
@@ -1828,7 +1930,7 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C24" t="n">
         <v>-0.11669028197698925</v>
@@ -1849,13 +1951,13 @@
         <v>-23.561929104279965</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J24" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L24" t="n">
         <v>0.6658507308179747</v>
@@ -1870,10 +1972,10 @@
         <v>-9.26445830403133</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q24" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
@@ -1881,7 +1983,7 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C25" t="n">
         <v>0.06316183676124654</v>
@@ -1902,13 +2004,13 @@
         <v>15.65431395073058</v>
       </c>
       <c r="I25" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L25" t="n">
         <v>1.070199664661734</v>
@@ -1923,10 +2025,10 @@
         <v>23.568965550724553</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q25" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
@@ -1934,7 +2036,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C26" t="n">
         <v>-0.0020026234399362582</v>
@@ -1955,13 +2057,13 @@
         <v>-0.4600595569535071</v>
       </c>
       <c r="I26" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J26" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L26" t="n">
         <v>0.9891545009181454</v>
@@ -1976,10 +2078,10 @@
         <v>0.17030488160698054</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q26" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
@@ -1987,7 +2089,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C27" t="n">
         <v>0.014125876468214445</v>
@@ -2008,13 +2110,13 @@
         <v>3.30607860327079</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J27" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K27" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L27" t="n">
         <v>0.9759598986905592</v>
@@ -2029,10 +2131,10 @@
         <v>9.07533877099183</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q27" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
@@ -2040,7 +2142,7 @@
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C28" t="n">
         <v>0.0019038621812417552</v>
@@ -2061,13 +2163,13 @@
         <v>0.4393427605908995</v>
       </c>
       <c r="I28" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J28" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K28" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L28" t="n">
         <v>1.0032024405482622</v>
@@ -2082,10 +2184,10 @@
         <v>0.5580267815682216</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q28" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
@@ -2093,7 +2195,7 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C29" t="n">
         <v>-0.005191628366010328</v>
@@ -2114,13 +2216,13 @@
         <v>-1.18829989042607</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J29" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K29" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L29" t="n">
         <v>0.9771903845706328</v>
@@ -2135,10 +2237,10 @@
         <v>-0.07317835348054968</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Q29" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
@@ -2146,7 +2248,7 @@
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C30" t="n">
         <v>1.0575575480990091</v>
@@ -2167,13 +2269,13 @@
         <v>1041.7145825042396</v>
       </c>
       <c r="I30" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J30" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L30" t="n">
         <v>6.133778111139399</v>
@@ -2188,10 +2290,10 @@
         <v>1114.8210756818469</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q30" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31">
@@ -2199,7 +2301,7 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C31" t="n">
         <v>-0.08356771991480216</v>
@@ -2220,13 +2322,13 @@
         <v>-17.504116109734813</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J31" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K31" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L31" t="n">
         <v>0.6189238668018348</v>
@@ -2241,10 +2343,10 @@
         <v>13.44422635444679</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q31" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32">
@@ -2252,7 +2354,7 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C32" t="n">
         <v>0.04271931950868528</v>
@@ -2273,13 +2375,13 @@
         <v>10.336529467374977</v>
       </c>
       <c r="I32" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K32" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L32" t="n">
         <v>0.8824142418924412</v>
@@ -2294,10 +2396,10 @@
         <v>34.006023773570874</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q32" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33">
@@ -2305,7 +2407,7 @@
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C33" t="n">
         <v>-0.0032141738558998274</v>
@@ -2326,13 +2428,13 @@
         <v>-0.737358951870104</v>
       </c>
       <c r="I33" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K33" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L33" t="n">
         <v>0.9837295262946243</v>
@@ -2347,10 +2449,10 @@
         <v>0.16505035401366186</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q33" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
@@ -2358,7 +2460,7 @@
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C34" t="n">
         <v>0.004095840317890564</v>
@@ -2379,13 +2481,13 @@
         <v>0.9475633072429046</v>
       </c>
       <c r="I34" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K34" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L34" t="n">
         <v>0.9633858156945101</v>
@@ -2400,10 +2502,10 @@
         <v>5.67695363708094</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q34" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35">
@@ -2411,7 +2513,7 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C35" t="n">
         <v>0.0019077493089580389</v>
@@ -2432,13 +2534,13 @@
         <v>0.4402417411594861</v>
       </c>
       <c r="I35" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K35" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L35" t="n">
         <v>1.0032570321645269</v>
@@ -2453,10 +2555,10 @@
         <v>0.5543765193255945</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q35" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
@@ -2464,7 +2566,7 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C36" t="n">
         <v>-0.005069913806200136</v>
@@ -2485,13 +2587,13 @@
         <v>-1.1606032271042621</v>
       </c>
       <c r="I36" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K36" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L36" t="n">
         <v>0.9759506782428521</v>
@@ -2506,10 +2608,10 @@
         <v>0.11043234354991194</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q36" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37">
@@ -2517,7 +2619,7 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C37" t="n">
         <v>0.08589202619592548</v>
@@ -2538,13 +2640,13 @@
         <v>21.86865727767433</v>
       </c>
       <c r="I37" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K37" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L37" t="n">
         <v>1.1429806836761556</v>
@@ -2559,10 +2661,10 @@
         <v>28.388161093876114</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q37" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
@@ -2570,7 +2672,7 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C38" t="n">
         <v>0.8581744699391035</v>
@@ -2591,13 +2693,13 @@
         <v>621.3972292439043</v>
       </c>
       <c r="I38" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J38" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K38" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L38" t="n">
         <v>3.48030041846508</v>
@@ -2612,10 +2714,10 @@
         <v>709.6895445430341</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q38" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39">
@@ -2623,7 +2725,7 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C39" t="n">
         <v>-0.09778005231078014</v>
@@ -2644,13 +2746,13 @@
         <v>-20.16010673467916</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J39" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L39" t="n">
         <v>0.6824603070897532</v>
@@ -2665,10 +2767,10 @@
         <v>-3.8245727237889113</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="Q39" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40">
@@ -2676,7 +2778,7 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C40" t="n">
         <v>0.04868607900119385</v>
@@ -2697,13 +2799,13 @@
         <v>11.862901276519032</v>
       </c>
       <c r="I40" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J40" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K40" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L40" t="n">
         <v>1.0298196627246208</v>
@@ -2718,10 +2820,10 @@
         <v>20.311953497372244</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Q40" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41">
@@ -2729,7 +2831,7 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C41" t="n">
         <v>9.288297182604299E-5</v>
@@ -2750,13 +2852,13 @@
         <v>0.02138938183409156</v>
       </c>
       <c r="I41" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J41" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K41" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L41" t="n">
         <v>0.9859953989718457</v>
@@ -2771,10 +2873,10 @@
         <v>1.4583776369440473</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q41" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42">
@@ -2782,7 +2884,7 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C42" t="n">
         <v>0.01057221735235003</v>
@@ -2803,13 +2905,13 @@
         <v>2.4642150403215712</v>
       </c>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J42" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K42" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L42" t="n">
         <v>0.9637151988372458</v>
@@ -2824,10 +2926,10 @@
         <v>8.691380389292608</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q42" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43">
@@ -2835,7 +2937,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C43" t="n">
         <v>0.0021524701785105445</v>
@@ -2856,13 +2958,13 @@
         <v>0.49685482484449484</v>
       </c>
       <c r="I43" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J43" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K43" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L43" t="n">
         <v>1.0034744017128168</v>
@@ -2877,10 +2979,10 @@
         <v>0.6456978945083813</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q43" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44">
@@ -2888,7 +2990,7 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C44" t="n">
         <v>-0.005265005802969576</v>
@@ -2909,13 +3011,13 @@
         <v>-1.204993486853878</v>
       </c>
       <c r="I44" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J44" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K44" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L44" t="n">
         <v>0.9735948188697368</v>
@@ -2930,10 +3032,10 @@
         <v>0.26417895274200554</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q44" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45">
@@ -2941,7 +3043,7 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C45" t="n">
         <v>0.07897520530333597</v>
@@ -2962,13 +3064,13 @@
         <v>19.943082341124185</v>
       </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J45" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L45" t="n">
         <v>1.0644619659910937</v>
@@ -2983,10 +3085,10 @@
         <v>32.251889013641176</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="Q45" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46">
@@ -2994,7 +3096,7 @@
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C46" t="n">
         <v>1.0511314102706124</v>
@@ -3015,13 +3117,13 @@
         <v>1024.9453121728218</v>
       </c>
       <c r="I46" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K46" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L46" t="n">
         <v>7.468376524210705</v>
@@ -3036,10 +3138,10 @@
         <v>1070.5047627602669</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q46" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47">
@@ -3047,7 +3149,7 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C47" t="n">
         <v>-0.09036728548363974</v>
@@ -3068,13 +3170,13 @@
         <v>-18.78566089511281</v>
       </c>
       <c r="I47" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K47" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L47" t="n">
         <v>0.6694981972179905</v>
@@ -3089,10 +3191,10 @@
         <v>1.5129223033237302</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Q47" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48">
@@ -3100,7 +3202,7 @@
         <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C48" t="n">
         <v>0.051978175484948895</v>
@@ -3121,13 +3223,13 @@
         <v>12.714081276703926</v>
       </c>
       <c r="I48" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K48" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L48" t="n">
         <v>0.963446766467273</v>
@@ -3142,10 +3244,10 @@
         <v>29.051586330467416</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q48" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49">
@@ -3153,7 +3255,7 @@
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C49" t="n">
         <v>-0.005011078265718208</v>
@@ -3174,13 +3276,13 @@
         <v>-1.1472121675845215</v>
       </c>
       <c r="I49" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L49" t="n">
         <v>0.9847119462488724</v>
@@ -3195,10 +3297,10 @@
         <v>-0.7600616271664271</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q49" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50">
@@ -3206,7 +3308,7 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C50" t="n">
         <v>0.020260748743281196</v>
@@ -3227,13 +3329,13 @@
         <v>4.775742878981193</v>
       </c>
       <c r="I50" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K50" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L50" t="n">
         <v>1.0109843430306389</v>
@@ -3248,10 +3350,10 @@
         <v>8.381268985302153</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Q50" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51">
@@ -3259,7 +3361,7 @@
         <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C51" t="n">
         <v>0.0019592426813958876</v>
@@ -3280,13 +3382,13 @@
         <v>0.4521514329015819</v>
       </c>
       <c r="I51" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J51" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K51" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L51" t="n">
         <v>1.0037026974333405</v>
@@ -3301,10 +3403,10 @@
         <v>0.533714765865799</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q51" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52">
@@ -3312,7 +3414,7 @@
         <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C52" t="n">
         <v>-0.005732599362705089</v>
@@ -3333,13 +3435,13 @@
         <v>-1.3113062554022226</v>
       </c>
       <c r="I52" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K52" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L52" t="n">
         <v>0.9779799328487107</v>
@@ -3354,10 +3456,10 @@
         <v>-0.40257313402969563</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="Q52" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53">
@@ -3365,7 +3467,7 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C53" t="n">
         <v>0.07356986135583964</v>
@@ -3386,13 +3488,13 @@
         <v>18.459490764164688</v>
       </c>
       <c r="I53" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J53" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K53" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L53" t="n">
         <v>1.1324392432845791</v>
@@ -3407,10 +3509,10 @@
         <v>23.014302873628054</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q53" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54">
@@ -3418,7 +3520,7 @@
         <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C54" t="n">
         <v>0.9656200104940478</v>
@@ -3439,13 +3541,13 @@
         <v>823.889455563363</v>
       </c>
       <c r="I54" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J54" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K54" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L54" t="n">
         <v>5.21303113329154</v>
@@ -3460,10 +3562,10 @@
         <v>890.3457147832106</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q54" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55">
@@ -3471,7 +3573,7 @@
         <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C55" t="n">
         <v>-0.10100191621823923</v>
@@ -3492,13 +3594,13 @@
         <v>-20.75021662302099</v>
       </c>
       <c r="I55" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J55" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K55" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L55" t="n">
         <v>0.7014120440151427</v>
@@ -3513,10 +3615,10 @@
         <v>-8.152488643156781</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q55" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56">
@@ -3524,7 +3626,7 @@
         <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C56" t="n">
         <v>0.052529001577836174</v>
@@ -3545,13 +3647,13 @@
         <v>12.857129942373003</v>
       </c>
       <c r="I56" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J56" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K56" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L56" t="n">
         <v>1.054094478972942</v>
@@ -3566,10 +3668,10 @@
         <v>19.80446289042753</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q56" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57">
@@ -3577,7 +3679,7 @@
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C57" t="n">
         <v>-0.003123436838387492</v>
@@ -3598,13 +3700,13 @@
         <v>-0.7166178710284354</v>
       </c>
       <c r="I57" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K57" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L57" t="n">
         <v>0.9861233742651843</v>
@@ -3619,10 +3721,10 @@
         <v>-0.037260513788752725</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Q57" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58">
@@ -3630,7 +3732,7 @@
         <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C58" t="n">
         <v>0.01720546833646433</v>
@@ -3651,13 +3753,13 @@
         <v>4.041227712241469</v>
       </c>
       <c r="I58" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J58" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K58" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L58" t="n">
         <v>0.9850349092189289</v>
@@ -3672,10 +3774,10 @@
         <v>9.587783402735354</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q58" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59">
@@ -3683,7 +3785,7 @@
         <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C59" t="n">
         <v>0.0020090626007591692</v>
@@ -3704,13 +3806,13 @@
         <v>0.46367542261234185</v>
       </c>
       <c r="I59" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J59" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K59" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L59" t="n">
         <v>1.003406647777164</v>
@@ -3725,10 +3827,10 @@
         <v>0.5862316528514651</v>
       </c>
       <c r="P59" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q59" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60">
@@ -3736,7 +3838,7 @@
         <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C60" t="n">
         <v>-0.004945632023111052</v>
@@ -3757,13 +3859,13 @@
         <v>-1.1323143705950334</v>
       </c>
       <c r="I60" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J60" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K60" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L60" t="n">
         <v>0.9771220139170295</v>
@@ -3778,10 +3880,10 @@
         <v>0.04681928144902825</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q60" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61">
@@ -3789,7 +3891,7 @@
         <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C61" t="n">
         <v>0.07508761807154843</v>
@@ -3810,13 +3912,13 @@
         <v>18.874202965115927</v>
       </c>
       <c r="I61" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K61" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L61" t="n">
         <v>1.0954529658949472</v>
@@ -3831,10 +3933,10 @@
         <v>27.219757910521558</v>
       </c>
       <c r="P61" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q61" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62">
@@ -3842,7 +3944,7 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C62" t="n">
         <v>0.8200458550668076</v>
@@ -3863,13 +3965,13 @@
         <v>560.7632111359077</v>
       </c>
       <c r="I62" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J62" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K62" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L62" t="n">
         <v>3.605459657300434</v>
@@ -3884,10 +3986,10 @@
         <v>631.7459731608452</v>
       </c>
       <c r="P62" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q62" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63">
@@ -3895,7 +3997,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C63" t="n">
         <v>-0.06370566248681528</v>
@@ -3916,13 +4018,13 @@
         <v>-13.643638135440451</v>
       </c>
       <c r="I63" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J63" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L63" t="n">
         <v>0.654637734053361</v>
@@ -3937,10 +4039,10 @@
         <v>16.107633501766585</v>
       </c>
       <c r="P63" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q63" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64">
@@ -3948,7 +4050,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C64" t="n">
         <v>0.03256595433094485</v>
@@ -3969,13 +4071,13 @@
         <v>7.786893232586323</v>
       </c>
       <c r="I64" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J64" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K64" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L64" t="n">
         <v>0.86899034575658</v>
@@ -3990,10 +4092,10 @@
         <v>30.556091283349396</v>
       </c>
       <c r="P64" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q64" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65">
@@ -4001,7 +4103,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C65" t="n">
         <v>-0.0015249720916029742</v>
@@ -4022,13 +4124,13 @@
         <v>-0.3505220327029268</v>
       </c>
       <c r="I65" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J65" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K65" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L65" t="n">
         <v>0.9881562232460175</v>
@@ -4043,10 +4145,10 @@
         <v>0.491591374450453</v>
       </c>
       <c r="P65" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q65" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66">
@@ -4054,7 +4156,7 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C66" t="n">
         <v>-0.008213692326728793</v>
@@ -4075,13 +4177,13 @@
         <v>-1.873500209187151</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J66" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K66" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L66" t="n">
         <v>0.9379661820279069</v>
@@ -4096,10 +4198,10 @@
         <v>2.6917206542135856</v>
       </c>
       <c r="P66" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q66" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
@@ -4107,7 +4209,7 @@
         <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C67" t="n">
         <v>0.002000156165979787</v>
@@ -4128,13 +4230,13 @@
         <v>0.46161515236882167</v>
       </c>
       <c r="I67" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J67" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K67" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L67" t="n">
         <v>1.0035111486621666</v>
@@ -4149,10 +4251,10 @@
         <v>0.5716991353923326</v>
       </c>
       <c r="P67" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q67" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68">
@@ -4160,7 +4262,7 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C68" t="n">
         <v>-0.003906549478020597</v>
@@ -4181,13 +4283,13 @@
         <v>-0.8954827149988076</v>
       </c>
       <c r="I68" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J68" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K68" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L68" t="n">
         <v>0.9790204649159507</v>
@@ -4202,10 +4304,10 @@
         <v>0.3290838601873918</v>
       </c>
       <c r="P68" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q68" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
@@ -4213,7 +4315,7 @@
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C69" t="n">
         <v>0.21644165122500691</v>
@@ -4234,13 +4336,13 @@
         <v>64.60448003823207</v>
       </c>
       <c r="I69" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J69" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K69" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L69" t="n">
         <v>1.524405423133509</v>
@@ -4255,10 +4357,10 @@
         <v>72.43390083676957</v>
       </c>
       <c r="P69" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q69" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -4266,7 +4368,7 @@
         <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C70" t="n">
         <v>0.6182315889314071</v>
@@ -4287,13 +4389,13 @@
         <v>315.1753772226774</v>
       </c>
       <c r="I70" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J70" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K70" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L70" t="n">
         <v>1.9138469010104535</v>
@@ -4308,10 +4410,10 @@
         <v>410.14667480189087</v>
       </c>
       <c r="P70" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q70" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71">
@@ -4319,7 +4421,7 @@
         <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C71" t="n">
         <v>-0.07763502095967674</v>
@@ -4340,13 +4442,13 @@
         <v>-16.369444976070046</v>
       </c>
       <c r="I71" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J71" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K71" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L71" t="n">
         <v>0.7034935849082492</v>
@@ -4361,10 +4463,10 @@
         <v>1.7099486787513314</v>
       </c>
       <c r="P71" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Q71" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72">
@@ -4372,7 +4474,7 @@
         <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C72" t="n">
         <v>0.03865558132131876</v>
@@ -4393,13 +4495,13 @@
         <v>9.308914447106421</v>
       </c>
       <c r="I72" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J72" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K72" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L72" t="n">
         <v>0.999028082677478</v>
@@ -4414,10 +4516,10 @@
         <v>18.516668775219003</v>
       </c>
       <c r="P72" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q72" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73">
@@ -4425,7 +4527,7 @@
         <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C73" t="n">
         <v>0.0014243601440395261</v>
@@ -4446,13 +4548,13 @@
         <v>0.3285094569513314</v>
       </c>
       <c r="I73" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J73" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K73" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L73" t="n">
         <v>0.9899090384086225</v>
@@ -4467,10 +4569,10 @@
         <v>1.6753086736562288</v>
       </c>
       <c r="P73" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q73" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74">
@@ -4478,7 +4580,7 @@
         <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C74" t="n">
         <v>-0.005620666680925348</v>
@@ -4499,13 +4601,13 @@
         <v>-1.2858674937651804</v>
       </c>
       <c r="I74" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J74" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K74" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L74" t="n">
         <v>0.9342282799258687</v>
@@ -4520,10 +4622,10 @@
         <v>4.301530574970922</v>
       </c>
       <c r="P74" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q74" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -4531,7 +4633,7 @@
         <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C75" t="n">
         <v>0.0022153181652399627</v>
@@ -4552,13 +4654,13 @@
         <v>0.5113990621962827</v>
       </c>
       <c r="I75" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J75" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K75" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L75" t="n">
         <v>1.0037510459414567</v>
@@ -4573,10 +4675,10 @@
         <v>0.6471390710898657</v>
       </c>
       <c r="P75" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q75" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -4584,7 +4686,7 @@
         <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C76" t="n">
         <v>-0.0034517089220064755</v>
@@ -4605,13 +4707,13 @@
         <v>-0.7916352830967921</v>
       </c>
       <c r="I76" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J76" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K76" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L76" t="n">
         <v>0.9779546612926767</v>
@@ -4626,10 +4728,10 @@
         <v>0.6480378729467602</v>
       </c>
       <c r="P76" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q76" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -4637,7 +4739,7 @@
         <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C77" t="n">
         <v>0.22314843434901865</v>
@@ -4658,13 +4760,13 @@
         <v>67.16618618208308</v>
       </c>
       <c r="I77" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J77" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K77" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L77" t="n">
         <v>1.4571328137748714</v>
@@ -4679,10 +4781,10 @@
         <v>81.39361835309668</v>
       </c>
       <c r="P77" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q77" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -4690,7 +4792,7 @@
         <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C78" t="n">
         <v>0.7835367111308564</v>
@@ -4711,13 +4813,13 @@
         <v>507.48661184193145</v>
       </c>
       <c r="I78" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J78" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K78" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L78" t="n">
         <v>3.3758127816531127</v>
@@ -4732,10 +4834,10 @@
         <v>575.9946698878122</v>
       </c>
       <c r="P78" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q78" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -4743,7 +4845,7 @@
         <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C79" t="n">
         <v>-0.06995217270534726</v>
@@ -4764,13 +4866,13 @@
         <v>-14.87682238547885</v>
       </c>
       <c r="I79" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K79" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L79" t="n">
         <v>0.6537115935781925</v>
@@ -4785,10 +4887,10 @@
         <v>13.38580614651643</v>
       </c>
       <c r="P79" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q79" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -4796,7 +4898,7 @@
         <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C80" t="n">
         <v>0.037349463640893525</v>
@@ -4817,13 +4919,13 @@
         <v>8.980667509337593</v>
       </c>
       <c r="I80" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J80" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K80" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L80" t="n">
         <v>0.8844657486793246</v>
@@ -4838,10 +4940,10 @@
         <v>31.01027940404896</v>
       </c>
       <c r="P80" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q80" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -4849,7 +4951,7 @@
         <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C81" t="n">
         <v>-0.0016845684076655515</v>
@@ -4870,13 +4972,13 @@
         <v>-0.3871349035201255</v>
       </c>
       <c r="I81" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J81" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K81" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L81" t="n">
         <v>0.9880737158248195</v>
@@ -4891,10 +4993,10 @@
         <v>0.42646012802415223</v>
       </c>
       <c r="P81" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q81" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82">
@@ -4902,7 +5004,7 @@
         <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C82" t="n">
         <v>-0.007943628187032974</v>
@@ -4923,13 +5025,13 @@
         <v>-1.8124616946429861</v>
       </c>
       <c r="I82" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J82" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K82" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L82" t="n">
         <v>0.9399374180767921</v>
@@ -4944,10 +5046,10 @@
         <v>2.601619051197193</v>
       </c>
       <c r="P82" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q82" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -4955,7 +5057,7 @@
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C83" t="n">
         <v>0.002013437284702243</v>
@@ -4976,13 +5078,13 @@
         <v>0.4646874065531881</v>
       </c>
       <c r="I83" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J83" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K83" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L83" t="n">
         <v>1.003571425843951</v>
@@ -4997,10 +5099,10 @@
         <v>0.5718213987861125</v>
       </c>
       <c r="P83" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q83" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -5008,7 +5110,7 @@
         <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C84" t="n">
         <v>-0.0034901360505000495</v>
@@ -5029,13 +5131,13 @@
         <v>-0.8004130228178918</v>
       </c>
       <c r="I84" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J84" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K84" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L84" t="n">
         <v>0.980278600381968</v>
@@ -5050,10 +5152,10 @@
         <v>0.39140855991934886</v>
       </c>
       <c r="P84" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q84" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -5061,7 +5163,7 @@
         <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C85" t="n">
         <v>0.224657080900575</v>
@@ -5082,13 +5184,13 @@
         <v>67.74789569907679</v>
       </c>
       <c r="I85" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J85" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K85" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L85" t="n">
         <v>1.5576421494562696</v>
@@ -5103,10 +5205,10 @@
         <v>75.30170289706689</v>
       </c>
       <c r="P85" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q85" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
@@ -5114,7 +5216,7 @@
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C86" t="n">
         <v>0.6001645910451101</v>
@@ -5135,13 +5237,13 @@
         <v>298.25807574809573</v>
       </c>
       <c r="I86" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J86" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K86" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L86" t="n">
         <v>1.84047022397835</v>
@@ -5156,10 +5258,10 @@
         <v>392.8574952998423</v>
       </c>
       <c r="P86" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q86" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
@@ -5167,7 +5269,7 @@
         <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C87" t="n">
         <v>-0.07518603342108894</v>
@@ -5188,13 +5290,13 @@
         <v>-15.896519932869213</v>
       </c>
       <c r="I87" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J87" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K87" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L87" t="n">
         <v>0.7037795371014468</v>
@@ -5209,10 +5311,10 @@
         <v>2.7551648764050416</v>
       </c>
       <c r="P87" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q87" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -5220,7 +5322,7 @@
         <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C88" t="n">
         <v>0.03918670121439023</v>
@@ -5241,13 +5343,13 @@
         <v>9.44267542195345</v>
       </c>
       <c r="I88" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J88" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L88" t="n">
         <v>0.9941373883216564</v>
@@ -5262,10 +5364,10 @@
         <v>19.29327657811887</v>
       </c>
       <c r="P88" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q88" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -5273,7 +5375,7 @@
         <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C89" t="n">
         <v>0.0011783396372419706</v>
@@ -5294,13 +5396,13 @@
         <v>0.2716911415551859</v>
       </c>
       <c r="I89" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J89" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K89" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L89" t="n">
         <v>0.9900566077546342</v>
@@ -5315,10 +5417,10 @@
         <v>1.5464572576022642</v>
       </c>
       <c r="P89" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q89" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -5326,7 +5428,7 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C90" t="n">
         <v>-0.007302386528191455</v>
@@ -5347,13 +5449,13 @@
         <v>-1.6673793886771815</v>
       </c>
       <c r="I90" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J90" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K90" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L90" t="n">
         <v>0.9318737217705242</v>
@@ -5368,10 +5470,10 @@
         <v>3.781341619446515</v>
       </c>
       <c r="P90" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q90" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -5379,7 +5481,7 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C91" t="n">
         <v>0.0022296025029957135</v>
@@ -5400,13 +5502,13 @@
         <v>0.5147050272590992</v>
       </c>
       <c r="I91" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J91" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K91" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L91" t="n">
         <v>1.0037900427114925</v>
@@ -5421,10 +5523,10 @@
         <v>0.6498486863272115</v>
       </c>
       <c r="P91" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q91" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -5432,7 +5534,7 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C92" t="n">
         <v>-0.0030637871903568255</v>
@@ -5453,13 +5555,13 @@
         <v>-0.7029805217912077</v>
       </c>
       <c r="I92" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J92" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K92" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L92" t="n">
         <v>0.9787844306843864</v>
@@ -5474,10 +5576,10 @@
         <v>0.7412366450213428</v>
       </c>
       <c r="P92" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q92" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -5485,7 +5587,7 @@
         <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C93" t="n">
         <v>0.23401539836363902</v>
@@ -5506,13 +5608,13 @@
         <v>71.40180787290336</v>
       </c>
       <c r="I93" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J93" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K93" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L93" t="n">
         <v>1.4952820462008494</v>
@@ -5527,10 +5629,10 @@
         <v>85.54108521441371</v>
       </c>
       <c r="P93" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q93" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
@@ -5538,7 +5640,7 @@
         <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C94" t="n">
         <v>0.7728096166072137</v>
@@ -5559,13 +5661,13 @@
         <v>492.66545851960365</v>
       </c>
       <c r="I94" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J94" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K94" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L94" t="n">
         <v>3.2289785389354853</v>
@@ -5580,10 +5682,10 @@
         <v>563.855071178588</v>
       </c>
       <c r="P94" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q94" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95">
@@ -5591,7 +5693,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C95" t="n">
         <v>-0.05507651754147611</v>
@@ -5612,13 +5714,13 @@
         <v>-11.910634368922102</v>
       </c>
       <c r="I95" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J95" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K95" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L95" t="n">
         <v>0.6681828915438754</v>
@@ -5633,10 +5735,10 @@
         <v>17.770322043041425</v>
       </c>
       <c r="P95" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q95" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96">
@@ -5644,7 +5746,7 @@
         <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C96" t="n">
         <v>0.028154786952170704</v>
@@ -5665,13 +5767,13 @@
         <v>6.69763346429828</v>
       </c>
       <c r="I96" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J96" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K96" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L96" t="n">
         <v>0.8607116151057544</v>
@@ -5686,10 +5788,10 @@
         <v>29.401592308363284</v>
       </c>
       <c r="P96" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q96" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
@@ -5697,7 +5799,7 @@
         <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C97" t="n">
         <v>-0.0031202192727552386</v>
@@ -5718,13 +5820,13 @@
         <v>-0.7158823056577779</v>
       </c>
       <c r="I97" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J97" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K97" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L97" t="n">
         <v>0.9842876051556759</v>
@@ -5739,10 +5841,10 @@
         <v>0.15128763956527713</v>
       </c>
       <c r="P97" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q97" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
@@ -5750,7 +5852,7 @@
         <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C98" t="n">
         <v>-0.006051146530752827</v>
@@ -5771,13 +5873,13 @@
         <v>-1.3836660914140375</v>
       </c>
       <c r="I98" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J98" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K98" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L98" t="n">
         <v>0.942690079782346</v>
@@ -5792,10 +5894,10 @@
         <v>3.177028357050046</v>
       </c>
       <c r="P98" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q98" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
@@ -5803,7 +5905,7 @@
         <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C99" t="n">
         <v>0.0019987503462160156</v>
@@ -5824,13 +5926,13 @@
         <v>0.4612899566746931</v>
       </c>
       <c r="I99" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J99" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K99" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L99" t="n">
         <v>1.0035113239510358</v>
@@ -5845,10 +5947,10 @@
         <v>0.5710325788590955</v>
       </c>
       <c r="P99" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q99" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
@@ -5856,7 +5958,7 @@
         <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C100" t="n">
         <v>-0.0033373290517360404</v>
@@ -5877,13 +5979,13 @@
         <v>-0.7655033961530555</v>
       </c>
       <c r="I100" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J100" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K100" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L100" t="n">
         <v>0.9803175655147764</v>
@@ -5898,10 +6000,10 @@
         <v>0.4577207546118127</v>
       </c>
       <c r="P100" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q100" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
@@ -5909,7 +6011,7 @@
         <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C101" t="n">
         <v>0.04675600948810384</v>
@@ -5930,13 +6032,13 @@
         <v>11.366868880728953</v>
       </c>
       <c r="I101" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J101" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K101" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L101" t="n">
         <v>1.0451598608657215</v>
@@ -5951,10 +6053,10 @@
         <v>17.819802843313084</v>
       </c>
       <c r="P101" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q101" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
@@ -5962,7 +6064,7 @@
         <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C102" t="n">
         <v>0.20250969381690032</v>
@@ -5983,13 +6085,13 @@
         <v>59.407846148267836</v>
       </c>
       <c r="I102" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J102" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K102" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L102" t="n">
         <v>1.4732333040645442</v>
@@ -6004,10 +6106,10 @@
         <v>67.45217250071934</v>
       </c>
       <c r="P102" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q102" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
@@ -6015,7 +6117,7 @@
         <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C103" t="n">
         <v>0.5865002086344426</v>
@@ -6036,13 +6138,13 @@
         <v>285.9225969913435</v>
       </c>
       <c r="I103" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J103" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K103" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L103" t="n">
         <v>1.8325795794082156</v>
@@ -6057,10 +6159,10 @@
         <v>376.5219037175881</v>
       </c>
       <c r="P103" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q103" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
@@ -6068,7 +6170,7 @@
         <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C104" t="n">
         <v>-0.07095913228095224</v>
@@ -6089,13 +6191,13 @@
         <v>-15.073961213167298</v>
       </c>
       <c r="I104" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J104" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K104" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L104" t="n">
         <v>0.7162626620851988</v>
@@ -6110,10 +6212,10 @@
         <v>2.7198503979968542</v>
       </c>
       <c r="P104" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q104" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
@@ -6121,7 +6223,7 @@
         <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C105" t="n">
         <v>0.035331561381315886</v>
@@ -6142,13 +6244,13 @@
         <v>8.475475214015749</v>
       </c>
       <c r="I105" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J105" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K105" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L105" t="n">
         <v>0.9932564748513479</v>
@@ -6163,10 +6265,10 @@
         <v>17.48859824719858</v>
       </c>
       <c r="P105" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q105" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
@@ -6174,7 +6276,7 @@
         <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C106" t="n">
         <v>2.1695157350230302E-4</v>
@@ -6195,13 +6297,13 @@
         <v>0.04996742546585775</v>
       </c>
       <c r="I106" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J106" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K106" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L106" t="n">
         <v>0.9859633768756763</v>
@@ -6216,10 +6318,10 @@
         <v>1.5190071364938609</v>
       </c>
       <c r="P106" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q106" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
@@ -6227,7 +6329,7 @@
         <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C107" t="n">
         <v>-0.004386250197432638</v>
@@ -6248,13 +6350,13 @@
         <v>-1.0048883473691261</v>
       </c>
       <c r="I107" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J107" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K107" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L107" t="n">
         <v>0.93777667095062</v>
@@ -6269,10 +6371,10 @@
         <v>4.484962810710806</v>
       </c>
       <c r="P107" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q107" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108">
@@ -6280,7 +6382,7 @@
         <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C108" t="n">
         <v>0.002228915757213064</v>
@@ -6301,13 +6403,13 @@
         <v>0.5145460844263594</v>
       </c>
       <c r="I108" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J108" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K108" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L108" t="n">
         <v>1.0037578752146397</v>
@@ -6322,10 +6424,10 @@
         <v>0.652738394180691</v>
       </c>
       <c r="P108" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q108" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109">
@@ -6333,7 +6435,7 @@
         <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C109" t="n">
         <v>-0.0032467189647966575</v>
@@ -6354,13 +6456,13 @@
         <v>-0.7447972053041485</v>
       </c>
       <c r="I109" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J109" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K109" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L109" t="n">
         <v>0.9783587131347887</v>
@@ -6375,10 +6477,10 @@
         <v>0.7008125322208376</v>
       </c>
       <c r="P109" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q109" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110">
@@ -6386,7 +6488,7 @@
         <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C110" t="n">
         <v>0.03839447016054221</v>
@@ -6407,13 +6509,13 @@
         <v>9.24321432807018</v>
       </c>
       <c r="I110" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J110" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K110" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L110" t="n">
         <v>0.9621213842908428</v>
@@ -6428,10 +6530,10 @@
         <v>22.36596215730906</v>
       </c>
       <c r="P110" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q110" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111">
@@ -6439,7 +6541,7 @@
         <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C111" t="n">
         <v>0.21109680904921296</v>
@@ -6460,13 +6562,13 @@
         <v>62.591114895802136</v>
       </c>
       <c r="I111" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J111" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K111" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L111" t="n">
         <v>1.4021138324238038</v>
@@ -6481,10 +6583,10 @@
         <v>77.973648762655</v>
       </c>
       <c r="P111" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q111" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112">
@@ -6492,7 +6594,7 @@
         <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C112" t="n">
         <v>0.7728096166072137</v>
@@ -6513,13 +6615,13 @@
         <v>492.66545851960365</v>
       </c>
       <c r="I112" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J112" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K112" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L112" t="n">
         <v>3.2289785389354853</v>
@@ -6534,10 +6636,10 @@
         <v>563.855071178588</v>
       </c>
       <c r="P112" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q112" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113">
@@ -6545,7 +6647,7 @@
         <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C113" t="n">
         <v>-0.05507651754147611</v>
@@ -6566,13 +6668,13 @@
         <v>-11.910634368922102</v>
       </c>
       <c r="I113" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J113" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K113" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L113" t="n">
         <v>0.6681828915438754</v>
@@ -6587,10 +6689,10 @@
         <v>17.770322043041425</v>
       </c>
       <c r="P113" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q113" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114">
@@ -6598,7 +6700,7 @@
         <v>128</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C114" t="n">
         <v>0.028154786952170704</v>
@@ -6619,13 +6721,13 @@
         <v>6.69763346429828</v>
       </c>
       <c r="I114" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J114" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K114" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L114" t="n">
         <v>0.8607116151057544</v>
@@ -6640,10 +6742,10 @@
         <v>29.401592308363284</v>
       </c>
       <c r="P114" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q114" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115">
@@ -6651,7 +6753,7 @@
         <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C115" t="n">
         <v>-0.0031202192727552386</v>
@@ -6672,13 +6774,13 @@
         <v>-0.7158823056577779</v>
       </c>
       <c r="I115" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J115" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K115" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L115" t="n">
         <v>0.9842876051556759</v>
@@ -6693,10 +6795,10 @@
         <v>0.15128763956527713</v>
       </c>
       <c r="P115" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q115" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116">
@@ -6704,7 +6806,7 @@
         <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C116" t="n">
         <v>-0.006051146530752827</v>
@@ -6725,13 +6827,13 @@
         <v>-1.3836660914140375</v>
       </c>
       <c r="I116" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J116" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K116" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L116" t="n">
         <v>0.942690079782346</v>
@@ -6746,10 +6848,10 @@
         <v>3.177028357050046</v>
       </c>
       <c r="P116" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q116" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117">
@@ -6757,7 +6859,7 @@
         <v>131</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C117" t="n">
         <v>0.0019987503462160156</v>
@@ -6778,13 +6880,13 @@
         <v>0.4612899566746931</v>
       </c>
       <c r="I117" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J117" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K117" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L117" t="n">
         <v>1.0035113239510358</v>
@@ -6799,10 +6901,10 @@
         <v>0.5710325788590955</v>
       </c>
       <c r="P117" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q117" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118">
@@ -6810,7 +6912,7 @@
         <v>132</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C118" t="n">
         <v>-0.0033373290517360404</v>
@@ -6831,13 +6933,13 @@
         <v>-0.7655033961530555</v>
       </c>
       <c r="I118" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J118" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K118" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L118" t="n">
         <v>0.9803175655147764</v>
@@ -6852,10 +6954,10 @@
         <v>0.4577207546118127</v>
       </c>
       <c r="P118" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q118" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119">
@@ -6863,7 +6965,7 @@
         <v>133</v>
       </c>
       <c r="B119" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C119" t="n">
         <v>0.04675600948810384</v>
@@ -6884,13 +6986,13 @@
         <v>11.366868880728953</v>
       </c>
       <c r="I119" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J119" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K119" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L119" t="n">
         <v>1.0451598608657215</v>
@@ -6905,10 +7007,10 @@
         <v>17.819802843313084</v>
       </c>
       <c r="P119" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q119" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120">
@@ -6916,7 +7018,7 @@
         <v>134</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C120" t="n">
         <v>0.20250969381690032</v>
@@ -6937,13 +7039,13 @@
         <v>59.407846148267836</v>
       </c>
       <c r="I120" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J120" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K120" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L120" t="n">
         <v>1.4732333040645442</v>
@@ -6958,10 +7060,10 @@
         <v>67.45217250071934</v>
       </c>
       <c r="P120" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q120" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121">
@@ -6969,7 +7071,7 @@
         <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C121" t="n">
         <v>0.5865002086344426</v>
@@ -6990,13 +7092,13 @@
         <v>285.9225969913435</v>
       </c>
       <c r="I121" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J121" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K121" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L121" t="n">
         <v>1.8325795794082156</v>
@@ -7011,10 +7113,10 @@
         <v>376.5219037175881</v>
       </c>
       <c r="P121" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q121" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122">
@@ -7022,7 +7124,7 @@
         <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C122" t="n">
         <v>-0.07095913228095224</v>
@@ -7043,13 +7145,13 @@
         <v>-15.073961213167298</v>
       </c>
       <c r="I122" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J122" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K122" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L122" t="n">
         <v>0.7162626620851988</v>
@@ -7064,10 +7166,10 @@
         <v>2.7198503979968542</v>
       </c>
       <c r="P122" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q122" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123">
@@ -7075,7 +7177,7 @@
         <v>137</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C123" t="n">
         <v>0.035331561381315886</v>
@@ -7096,13 +7198,13 @@
         <v>8.475475214015749</v>
       </c>
       <c r="I123" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J123" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K123" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L123" t="n">
         <v>0.9932564748513479</v>
@@ -7117,10 +7219,10 @@
         <v>17.48859824719858</v>
       </c>
       <c r="P123" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q123" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124">
@@ -7128,7 +7230,7 @@
         <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C124" t="n">
         <v>2.1695157350230302E-4</v>
@@ -7149,13 +7251,13 @@
         <v>0.04996742546585775</v>
       </c>
       <c r="I124" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J124" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K124" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L124" t="n">
         <v>0.9859633768756763</v>
@@ -7170,10 +7272,10 @@
         <v>1.5190071364938609</v>
       </c>
       <c r="P124" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q124" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125">
@@ -7181,7 +7283,7 @@
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C125" t="n">
         <v>-0.004386250197432638</v>
@@ -7202,13 +7304,13 @@
         <v>-1.0048883473691261</v>
       </c>
       <c r="I125" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J125" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K125" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L125" t="n">
         <v>0.93777667095062</v>
@@ -7223,10 +7325,10 @@
         <v>4.484962810710806</v>
       </c>
       <c r="P125" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q125" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126">
@@ -7234,7 +7336,7 @@
         <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C126" t="n">
         <v>0.002228915757213064</v>
@@ -7255,13 +7357,13 @@
         <v>0.5145460844263594</v>
       </c>
       <c r="I126" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J126" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K126" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L126" t="n">
         <v>1.0037578752146397</v>
@@ -7276,10 +7378,10 @@
         <v>0.652738394180691</v>
       </c>
       <c r="P126" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q126" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127">
@@ -7287,7 +7389,7 @@
         <v>141</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C127" t="n">
         <v>-0.0032467189647966575</v>
@@ -7308,13 +7410,13 @@
         <v>-0.7447972053041485</v>
       </c>
       <c r="I127" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J127" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K127" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L127" t="n">
         <v>0.9783587131347887</v>
@@ -7329,10 +7431,10 @@
         <v>0.7008125322208376</v>
       </c>
       <c r="P127" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q127" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128">
@@ -7340,7 +7442,7 @@
         <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C128" t="n">
         <v>0.03839447016054221</v>
@@ -7361,13 +7463,13 @@
         <v>9.24321432807018</v>
       </c>
       <c r="I128" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J128" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K128" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L128" t="n">
         <v>0.9621213842908428</v>
@@ -7382,10 +7484,10 @@
         <v>22.36596215730906</v>
       </c>
       <c r="P128" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q128" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129">
@@ -7393,7 +7495,7 @@
         <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C129" t="n">
         <v>0.21109680904921296</v>
@@ -7414,13 +7516,13 @@
         <v>62.591114895802136</v>
       </c>
       <c r="I129" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J129" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K129" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L129" t="n">
         <v>1.4021138324238038</v>
@@ -7435,10 +7537,1706 @@
         <v>77.973648762655</v>
       </c>
       <c r="P129" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.6784216305947159</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.11077680266581794</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.1242210848179175</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.142599876664651E-9</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4.768937498162727</v>
+      </c>
+      <c r="H130" t="n">
+        <v>376.8937498162727</v>
+      </c>
+      <c r="I130" t="s">
+        <v>189</v>
+      </c>
+      <c r="J130" t="s">
+        <v>190</v>
+      </c>
+      <c r="K130" t="s">
+        <v>192</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2.8926713710347145</v>
+      </c>
+      <c r="M130" t="n">
+        <v>7.862201385582019</v>
+      </c>
+      <c r="N130" t="n">
+        <v>319.9448038667364</v>
+      </c>
+      <c r="O130" t="n">
+        <v>433.842695765809</v>
+      </c>
+      <c r="P130" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-0.034491289565694604</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.058936935153594314</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.5852236712989499</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.5584792393131498</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9236527134894532</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-7.634728651054679</v>
+      </c>
+      <c r="I131" t="s">
+        <v>189</v>
+      </c>
+      <c r="J131" t="s">
+        <v>190</v>
+      </c>
+      <c r="K131" t="s">
+        <v>192</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.7079332612643099</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1.20510559655412</v>
+      </c>
+      <c r="N131" t="n">
+        <v>-36.12266442595837</v>
+      </c>
+      <c r="O131" t="n">
+        <v>20.853207123849014</v>
+      </c>
+      <c r="P131" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.017631741307834556</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.04683955705244176</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.3764284382128974</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.7066479458053971</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.0414339740966747</v>
+      </c>
+      <c r="H132" t="n">
+        <v>4.143397409667471</v>
+      </c>
+      <c r="I132" t="s">
+        <v>189</v>
+      </c>
+      <c r="J132" t="s">
+        <v>190</v>
+      </c>
+      <c r="K132" t="s">
+        <v>192</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.8429973501598547</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.2865814135680587</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-18.177661152749735</v>
+      </c>
+      <c r="O132" t="n">
+        <v>26.46445597208468</v>
+      </c>
+      <c r="P132" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-0.003352886057179543</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.0019082613027753318</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-1.7570371795011417</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.07910129814283613</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.9923094195597971</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-0.7690580440202877</v>
+      </c>
+      <c r="I133" t="s">
+        <v>189</v>
+      </c>
+      <c r="J133" t="s">
+        <v>190</v>
+      </c>
+      <c r="K133" t="s">
+        <v>192</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.983800234606504</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.000892203020208</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-1.632163940308645</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.09404785226806966</v>
+      </c>
+      <c r="P133" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>148</v>
+      </c>
+      <c r="B134" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-0.007151247555334148</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.009951590823571348</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-0.7186034556802412</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.4724894266901891</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.9836684733591392</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-1.6331526640860794</v>
+      </c>
+      <c r="I134" t="s">
+        <v>189</v>
+      </c>
+      <c r="J134" t="s">
+        <v>190</v>
+      </c>
+      <c r="K134" t="s">
+        <v>192</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.9404671585459433</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.028854284477846</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-6.176224121481895</v>
+      </c>
+      <c r="O134" t="n">
+        <v>2.9099187933097364</v>
+      </c>
+      <c r="P134" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" t="s">
+        <v>181</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.001986309580504365</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.4292919173231627E-4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>8.17649606595275</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5.853820210213294E-16</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.0045841219164973</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.45841219164972635</v>
+      </c>
+      <c r="I135" t="s">
+        <v>189</v>
+      </c>
+      <c r="J135" t="s">
+        <v>190</v>
+      </c>
+      <c r="K135" t="s">
+        <v>192</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1.0034833439551498</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.0056861073838064</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.34874595620978877</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.5680784270896639</v>
+      </c>
+      <c r="P135" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" t="s">
+        <v>183</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.04785740124017165</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.014042002676692925</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.4081606692474073</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6.701278134231932E-4</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.116496590646267</v>
+      </c>
+      <c r="H136" t="n">
+        <v>11.649659064626693</v>
+      </c>
+      <c r="I136" t="s">
+        <v>189</v>
+      </c>
+      <c r="J136" t="s">
+        <v>190</v>
+      </c>
+      <c r="K136" t="s">
+        <v>192</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1.047936762391068</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.18954185181982</v>
+      </c>
+      <c r="N136" t="n">
+        <v>5.208845472062697</v>
+      </c>
+      <c r="O136" t="n">
+        <v>18.090472657190688</v>
+      </c>
+      <c r="P136" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" t="s">
+        <v>184</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.20370310842509087</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.017444552790386352</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.677175727734971</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.6638033486600055E-30</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.5984649154494712</v>
+      </c>
+      <c r="H137" t="n">
+        <v>59.84649154494712</v>
+      </c>
+      <c r="I137" t="s">
+        <v>189</v>
+      </c>
+      <c r="J137" t="s">
+        <v>190</v>
+      </c>
+      <c r="K137" t="s">
+        <v>192</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1.4774465728347084</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.7293959273400674</v>
+      </c>
+      <c r="N137" t="n">
+        <v>51.813393410761634</v>
+      </c>
+      <c r="O137" t="n">
+        <v>67.87958967913261</v>
+      </c>
+      <c r="P137" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.49277549539830845</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.1379642146161285</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.5717631327036976</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7.954394709646931E-4</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3.110108179206334</v>
+      </c>
+      <c r="H138" t="n">
+        <v>211.0108179206334</v>
+      </c>
+      <c r="I138" t="s">
+        <v>189</v>
+      </c>
+      <c r="J138" t="s">
+        <v>191</v>
+      </c>
+      <c r="K138" t="s">
+        <v>192</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1.668651467568147</v>
+      </c>
+      <c r="M138" t="n">
+        <v>5.796760482560812</v>
+      </c>
+      <c r="N138" t="n">
+        <v>137.72078093291452</v>
+      </c>
+      <c r="O138" t="n">
+        <v>284.3008549083523</v>
+      </c>
+      <c r="P138" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.0504034916186313</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0314429120533575</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-1.6030160162359761</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.11523039785198012</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.8904232847852412</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-10.957671521475875</v>
+      </c>
+      <c r="I139" t="s">
+        <v>189</v>
+      </c>
+      <c r="J139" t="s">
+        <v>191</v>
+      </c>
+      <c r="K139" t="s">
+        <v>192</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.7726243669430094</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.0261825280307546</v>
+      </c>
+      <c r="N139" t="n">
+        <v>-25.674384696498677</v>
+      </c>
+      <c r="O139" t="n">
+        <v>3.759041653546925</v>
+      </c>
+      <c r="P139" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.02509661548432364</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.016126154636267473</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.5562678177401164</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.12595208054614637</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.0594893986669982</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5.9489398666998206</v>
+      </c>
+      <c r="I140" t="s">
+        <v>189</v>
+      </c>
+      <c r="J140" t="s">
+        <v>191</v>
+      </c>
+      <c r="K140" t="s">
+        <v>192</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.9851204902976788</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.139472579185274</v>
+      </c>
+      <c r="N140" t="n">
+        <v>-1.4657093027931838</v>
+      </c>
+      <c r="O140" t="n">
+        <v>13.363589036192824</v>
+      </c>
+      <c r="P140" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-1.0612942665662854E-5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.003220407022524302</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-0.003295528357575107</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.9973836672051611</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.9999755630950112</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-0.002443690498876716</v>
+      </c>
+      <c r="I141" t="s">
+        <v>189</v>
+      </c>
+      <c r="J141" t="s">
+        <v>191</v>
+      </c>
+      <c r="K141" t="s">
+        <v>192</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.985547111206282</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.0146152481369184</v>
+      </c>
+      <c r="N141" t="n">
+        <v>-1.4612368681604084</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1.456349487162655</v>
+      </c>
+      <c r="P141" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>156</v>
+      </c>
+      <c r="B142" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.00527645913942024</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.011880383769005222</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.4441320450595219</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.658863447909721</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.9879240109775178</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-1.2075989022482192</v>
+      </c>
+      <c r="I142" t="s">
+        <v>189</v>
+      </c>
+      <c r="J142" t="s">
+        <v>191</v>
+      </c>
+      <c r="K142" t="s">
+        <v>192</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.9363495124135626</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.0423392531600255</v>
+      </c>
+      <c r="N142" t="n">
+        <v>-6.6433049522624525</v>
+      </c>
+      <c r="O142" t="n">
+        <v>4.228107147766014</v>
+      </c>
+      <c r="P142" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.0022187531801705087</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3.0589339019079396E-4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7.253354440861283</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.410525137550414E-9</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.0051219405162455</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.5121940516245482</v>
+      </c>
+      <c r="I143" t="s">
+        <v>189</v>
+      </c>
+      <c r="J143" t="s">
+        <v>191</v>
+      </c>
+      <c r="K143" t="s">
+        <v>192</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1.0037353096447525</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1.0065104869775912</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.3740936923278584</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0.6502944109212381</v>
+      </c>
+      <c r="P143" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.03891789095808005</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.028107279313385847</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.3846196397794268</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.17231694919429394</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.093749559088853</v>
+      </c>
+      <c r="H144" t="n">
+        <v>9.374955908885308</v>
+      </c>
+      <c r="I144" t="s">
+        <v>189</v>
+      </c>
+      <c r="J144" t="s">
+        <v>191</v>
+      </c>
+      <c r="K144" t="s">
+        <v>192</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.9634465446620329</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1.2416756327946619</v>
+      </c>
+      <c r="N144" t="n">
+        <v>-3.729530410594869</v>
+      </c>
+      <c r="O144" t="n">
+        <v>22.479442228365485</v>
+      </c>
+      <c r="P144" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.21262728668673675</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.032736292295723626</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.495154819793457</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3.699341405954096E-8</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.631651057197044</v>
+      </c>
+      <c r="H145" t="n">
+        <v>63.16510571970439</v>
+      </c>
+      <c r="I145" t="s">
+        <v>189</v>
+      </c>
+      <c r="J145" t="s">
+        <v>191</v>
+      </c>
+      <c r="K145" t="s">
+        <v>192</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1.4075510457745148</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1.8914306379469814</v>
+      </c>
+      <c r="N145" t="n">
+        <v>47.819917923134426</v>
+      </c>
+      <c r="O145" t="n">
+        <v>78.51029351627436</v>
+      </c>
+      <c r="P145" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146" t="s">
+        <v>176</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.697874079532613</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.109889970944004</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.35066215358474</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.774489769527194E-10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4.987398605668157</v>
+      </c>
+      <c r="H146" t="n">
+        <v>398.7398605668157</v>
+      </c>
+      <c r="I146" t="s">
+        <v>189</v>
+      </c>
+      <c r="J146" t="s">
+        <v>190</v>
+      </c>
+      <c r="K146" t="s">
+        <v>193</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3.0373143113947614</v>
+      </c>
+      <c r="M146" t="n">
+        <v>8.189519523383884</v>
+      </c>
+      <c r="N146" t="n">
+        <v>342.3069107440316</v>
+      </c>
+      <c r="O146" t="n">
+        <v>455.1728103895998</v>
+      </c>
+      <c r="P146" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
         <v>161</v>
       </c>
-      <c r="Q129" t="s">
+      <c r="B147" t="s">
+        <v>177</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.035043287700980724</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.05853623744697562</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.5986597230941652</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.5494831049800263</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.9224794757081765</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-7.7520524291823545</v>
+      </c>
+      <c r="I147" t="s">
+        <v>189</v>
+      </c>
+      <c r="J147" t="s">
+        <v>190</v>
+      </c>
+      <c r="K147" t="s">
+        <v>193</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.7083137734324664</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1.2014003045275627</v>
+      </c>
+      <c r="N147" t="n">
+        <v>-36.03296204800078</v>
+      </c>
+      <c r="O147" t="n">
+        <v>20.528857189636078</v>
+      </c>
+      <c r="P147" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" t="s">
+        <v>178</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.017942681503087452</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.04654132900543815</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.3855214684778539</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.6999014703177832</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.042179872669724</v>
+      </c>
+      <c r="H148" t="n">
+        <v>4.217987266972401</v>
+      </c>
+      <c r="I148" t="s">
+        <v>189</v>
+      </c>
+      <c r="J148" t="s">
+        <v>190</v>
+      </c>
+      <c r="K148" t="s">
+        <v>193</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.8447373106054846</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1.2857711780474894</v>
+      </c>
+      <c r="N148" t="n">
+        <v>-17.95320267966215</v>
+      </c>
+      <c r="O148" t="n">
+        <v>26.389177213606953</v>
+      </c>
+      <c r="P148" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" t="s">
+        <v>179</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.003394936588072974</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0018945079440026566</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-1.7919885735080419</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.07332044092493879</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.9922133439254214</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-0.7786656074578624</v>
+      </c>
+      <c r="I149" t="s">
+        <v>189</v>
+      </c>
+      <c r="J149" t="s">
+        <v>190</v>
+      </c>
+      <c r="K149" t="s">
+        <v>193</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.983766043126155</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.000733179135986</v>
+      </c>
+      <c r="N149" t="n">
+        <v>-1.6355372867198237</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0.07820607180409889</v>
+      </c>
+      <c r="P149" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.009070659597419886</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.00984155456931169</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-0.9216693900884685</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.3568376122344852</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.9793306356103926</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-2.0669364389607425</v>
+      </c>
+      <c r="I150" t="s">
+        <v>189</v>
+      </c>
+      <c r="J150" t="s">
+        <v>190</v>
+      </c>
+      <c r="K150" t="s">
+        <v>193</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.936784925241873</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.0238086331261405</v>
+      </c>
+      <c r="N150" t="n">
+        <v>-6.559203168179537</v>
+      </c>
+      <c r="O150" t="n">
+        <v>2.425330290258052</v>
+      </c>
+      <c r="P150" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" t="s">
+        <v>181</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.0019870807621700944</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.4157263517914323E-4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8.22560370174599</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3.9279010917234094E-16</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.0045859057695663</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.4585905769566301</v>
+      </c>
+      <c r="I151" t="s">
+        <v>189</v>
+      </c>
+      <c r="J151" t="s">
+        <v>190</v>
+      </c>
+      <c r="K151" t="s">
+        <v>193</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1.003491269439421</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.005681736159622</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.349536906143884</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0.5676442477693762</v>
+      </c>
+      <c r="P151" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" t="s">
+        <v>183</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.046272386785305854</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.013925106954834883</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.3229465982119293</v>
+      </c>
+      <c r="F152" t="n">
+        <v>9.10470790727897E-4</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.1124292171819354</v>
+      </c>
+      <c r="H152" t="n">
+        <v>11.242921718193543</v>
+      </c>
+      <c r="I152" t="s">
+        <v>189</v>
+      </c>
+      <c r="J152" t="s">
+        <v>190</v>
+      </c>
+      <c r="K152" t="s">
+        <v>193</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1.0446701298740158</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.184583274520592</v>
+      </c>
+      <c r="N152" t="n">
+        <v>4.8565902374652214</v>
+      </c>
+      <c r="O152" t="n">
+        <v>17.629253198921866</v>
+      </c>
+      <c r="P152" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" t="s">
+        <v>184</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.20257945306174255</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.017341649992152885</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.681671187771059</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.4722849998023875E-30</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.5943345334471648</v>
+      </c>
+      <c r="H153" t="n">
+        <v>59.43345334471648</v>
+      </c>
+      <c r="I153" t="s">
+        <v>189</v>
+      </c>
+      <c r="J153" t="s">
+        <v>190</v>
+      </c>
+      <c r="K153" t="s">
+        <v>193</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1.4743134211505002</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1.7241263411673895</v>
+      </c>
+      <c r="N153" t="n">
+        <v>51.4486935855962</v>
+      </c>
+      <c r="O153" t="n">
+        <v>67.41821310383676</v>
+      </c>
+      <c r="P153" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
         <v>168</v>
+      </c>
+      <c r="B154" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.5065409392587704</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.13751106723055573</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.683637611578468</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5.648930166217405E-4</v>
+      </c>
+      <c r="G154" t="n">
+        <v>3.2102654092344167</v>
+      </c>
+      <c r="H154" t="n">
+        <v>221.02654092344167</v>
+      </c>
+      <c r="I154" t="s">
+        <v>189</v>
+      </c>
+      <c r="J154" t="s">
+        <v>191</v>
+      </c>
+      <c r="K154" t="s">
+        <v>193</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1.7259143810539035</v>
+      </c>
+      <c r="M154" t="n">
+        <v>5.971213932080416</v>
+      </c>
+      <c r="N154" t="n">
+        <v>148.01733742718412</v>
+      </c>
+      <c r="O154" t="n">
+        <v>294.0357444196992</v>
+      </c>
+      <c r="P154" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" t="s">
+        <v>177</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-0.053594438310536265</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.03101624168013564</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-1.7279475335292103</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.09016999068680215</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.8839049411862921</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-11.609505881370785</v>
+      </c>
+      <c r="I155" t="s">
+        <v>189</v>
+      </c>
+      <c r="J155" t="s">
+        <v>191</v>
+      </c>
+      <c r="K155" t="s">
+        <v>193</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.7684466612227624</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.0167107028747406</v>
+      </c>
+      <c r="N155" t="n">
+        <v>-26.11930316698863</v>
+      </c>
+      <c r="O155" t="n">
+        <v>2.90029140424706</v>
+      </c>
+      <c r="P155" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" t="s">
+        <v>178</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.026596566385679508</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.015876720426992442</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.6751927142624472</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.10014042453711741</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.0631549519664003</v>
+      </c>
+      <c r="H156" t="n">
+        <v>6.315495196640031</v>
+      </c>
+      <c r="I156" t="s">
+        <v>189</v>
+      </c>
+      <c r="J156" t="s">
+        <v>191</v>
+      </c>
+      <c r="K156" t="s">
+        <v>193</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.9896421733141185</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1.1421284201192945</v>
+      </c>
+      <c r="N156" t="n">
+        <v>-0.9823576367516544</v>
+      </c>
+      <c r="O156" t="n">
+        <v>13.613348030031716</v>
+      </c>
+      <c r="P156" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157" t="s">
+        <v>179</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.9121679877703697E-5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0031951089048824397</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.009114456109212089</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.9927640866353235</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.0000670573942159</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.006705739421586365</v>
+      </c>
+      <c r="I157" t="s">
+        <v>189</v>
+      </c>
+      <c r="J157" t="s">
+        <v>191</v>
+      </c>
+      <c r="K157" t="s">
+        <v>193</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.9857498240495701</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1.0145922371829228</v>
+      </c>
+      <c r="N157" t="n">
+        <v>-1.4405855875410065</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1.4539970663841792</v>
+      </c>
+      <c r="P157" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158" t="s">
+        <v>180</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-0.007030438185347878</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.011822021785927884</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-0.5946900041849377</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.5547324521692505</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.9839421422718527</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-1.6057857728147273</v>
+      </c>
+      <c r="I158" t="s">
+        <v>189</v>
+      </c>
+      <c r="J158" t="s">
+        <v>191</v>
+      </c>
+      <c r="K158" t="s">
+        <v>193</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.932821181704877</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1.0378646608014317</v>
+      </c>
+      <c r="N158" t="n">
+        <v>-7.014424020048843</v>
+      </c>
+      <c r="O158" t="n">
+        <v>3.8028524744193875</v>
+      </c>
+      <c r="P158" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159" t="s">
+        <v>181</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0022337954967589857</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.021734771185059E-4</v>
+      </c>
+      <c r="E159" t="n">
+        <v>7.3924274163974335</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.4621677847929983E-9</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.0051567547377267</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.5156754737726699</v>
+      </c>
+      <c r="I159" t="s">
+        <v>189</v>
+      </c>
+      <c r="J159" t="s">
+        <v>191</v>
+      </c>
+      <c r="K159" t="s">
+        <v>193</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1.00378692748818</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1.0065284513348831</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.37925511178007376</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0.652095835765266</v>
+      </c>
+      <c r="P159" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" t="s">
+        <v>183</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.036421761567327945</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.027807278295019326</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.309792392513711</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.19625238579279108</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.0874812095378197</v>
+      </c>
+      <c r="H160" t="n">
+        <v>8.748120953781967</v>
+      </c>
+      <c r="I160" t="s">
+        <v>189</v>
+      </c>
+      <c r="J160" t="s">
+        <v>191</v>
+      </c>
+      <c r="K160" t="s">
+        <v>193</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.9592228067242732</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1.232889139840667</v>
+      </c>
+      <c r="N160" t="n">
+        <v>-4.211970491584754</v>
+      </c>
+      <c r="O160" t="n">
+        <v>21.70821239914869</v>
+      </c>
+      <c r="P160" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161" t="s">
+        <v>184</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.21204081378366696</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.0323310074479219</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.558435091304154</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.9455727198662768E-8</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.6294491565298714</v>
+      </c>
+      <c r="H161" t="n">
+        <v>62.94491565298714</v>
+      </c>
+      <c r="I161" t="s">
+        <v>189</v>
+      </c>
+      <c r="J161" t="s">
+        <v>191</v>
+      </c>
+      <c r="K161" t="s">
+        <v>193</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1.408224964891175</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1.8854264197205814</v>
+      </c>
+      <c r="N161" t="n">
+        <v>47.79686378957006</v>
+      </c>
+      <c r="O161" t="n">
+        <v>78.09296751640423</v>
+      </c>
+      <c r="P161" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7457,13 +9255,13 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -7472,25 +9270,25 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="K1" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="L1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="M1" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="N1" t="s">
         <v>7</v>
@@ -7502,10 +9300,10 @@
         <v>9</v>
       </c>
       <c r="Q1" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="R1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="S1" t="s">
         <v>15</v>
@@ -7552,13 +9350,13 @@
         <v>1620.0</v>
       </c>
       <c r="N2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="Q2" t="e">
         <v>#N/A</v>
@@ -7567,7 +9365,7 @@
         <v>#N/A</v>
       </c>
       <c r="S2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -7611,13 +9409,13 @@
         <v>1406.0</v>
       </c>
       <c r="N3" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O3" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="Q3" t="n">
         <v>1145.5692640169525</v>
@@ -7626,7 +9424,7 @@
         <v>1405.0</v>
       </c>
       <c r="S3" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4">
@@ -7670,13 +9468,13 @@
         <v>3618.0</v>
       </c>
       <c r="N4" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="Q4" t="e">
         <v>#N/A</v>
@@ -7685,7 +9483,7 @@
         <v>#N/A</v>
       </c>
       <c r="S4" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
@@ -7729,13 +9527,13 @@
         <v>2926.0</v>
       </c>
       <c r="N5" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O5" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="Q5" t="n">
         <v>2398.14328979368</v>
@@ -7744,7 +9542,7 @@
         <v>2925.0</v>
       </c>
       <c r="S5" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
@@ -7788,13 +9586,13 @@
         <v>1620.0</v>
       </c>
       <c r="N6" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="O6" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="Q6" t="e">
         <v>#N/A</v>
@@ -7803,7 +9601,7 @@
         <v>#N/A</v>
       </c>
       <c r="S6" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7">
@@ -7847,13 +9645,13 @@
         <v>1406.0</v>
       </c>
       <c r="N7" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="O7" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="Q7" t="n">
         <v>1145.5692640169525</v>
@@ -7862,7 +9660,7 @@
         <v>1405.0</v>
       </c>
       <c r="S7" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
@@ -7906,13 +9704,13 @@
         <v>3352.0</v>
       </c>
       <c r="N8" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="O8" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="Q8" t="e">
         <v>#N/A</v>
@@ -7921,7 +9719,7 @@
         <v>#N/A</v>
       </c>
       <c r="S8" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -7965,13 +9763,13 @@
         <v>2706.0</v>
       </c>
       <c r="N9" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="O9" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="Q9" t="n">
         <v>2249.256668822647</v>
@@ -7980,7 +9778,7 @@
         <v>2705.0</v>
       </c>
       <c r="S9" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
@@ -8024,13 +9822,13 @@
         <v>1620.0</v>
       </c>
       <c r="N10" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="O10" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="Q10" t="e">
         <v>#N/A</v>
@@ -8039,7 +9837,7 @@
         <v>#N/A</v>
       </c>
       <c r="S10" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -8083,13 +9881,13 @@
         <v>1406.0</v>
       </c>
       <c r="N11" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="O11" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="Q11" t="n">
         <v>1145.5692640169525</v>
@@ -8098,7 +9896,7 @@
         <v>1405.0</v>
       </c>
       <c r="S11" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
@@ -8142,13 +9940,13 @@
         <v>1718.0</v>
       </c>
       <c r="N12" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="O12" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="Q12" t="e">
         <v>#N/A</v>
@@ -8157,7 +9955,7 @@
         <v>#N/A</v>
       </c>
       <c r="S12" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
@@ -8201,13 +9999,13 @@
         <v>1494.0</v>
       </c>
       <c r="N13" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="O13" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="Q13" t="n">
         <v>1210.1591898136144</v>
@@ -8216,7 +10014,7 @@
         <v>1493.0</v>
       </c>
       <c r="S13" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
@@ -8260,13 +10058,13 @@
         <v>1620.0</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="O14" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="Q14" t="e">
         <v>#N/A</v>
@@ -8275,7 +10073,7 @@
         <v>#N/A</v>
       </c>
       <c r="S14" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
@@ -8319,13 +10117,13 @@
         <v>1406.0</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="O15" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="Q15" t="n">
         <v>1145.5692640169525</v>
@@ -8334,7 +10132,7 @@
         <v>1405.0</v>
       </c>
       <c r="S15" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
@@ -8378,13 +10176,13 @@
         <v>1620.0</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="Q16" t="e">
         <v>#N/A</v>
@@ -8393,7 +10191,7 @@
         <v>#N/A</v>
       </c>
       <c r="S16" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -8437,13 +10235,13 @@
         <v>1406.0</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="Q17" t="n">
         <v>1145.5692640169525</v>
@@ -8452,7 +10250,243 @@
         <v>1405.0</v>
       </c>
       <c r="S17" t="s">
-        <v>168</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.131976779120901</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1282074475165873</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8397680073340145</v>
+      </c>
+      <c r="E18" t="n">
+        <v>35.01331084000779</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.0303589620917224E-45</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-2011.770551215062</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4041.541102430124</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4090.052735284162</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1136.799013500487</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1612.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" t="s">
+        <v>190</v>
+      </c>
+      <c r="P18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1372275586417323</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1329075249582502</v>
+      </c>
+      <c r="D19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4995.966564110837</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1046.3536232398649</v>
+      </c>
+      <c r="K19" t="n">
+        <v>988.3655906608999</v>
+      </c>
+      <c r="L19" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1406.0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>191</v>
+      </c>
+      <c r="P19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1145.5692640169525</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1405.0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.13121993716200345</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.12748439635127495</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8383150770839245</v>
+      </c>
+      <c r="E20" t="n">
+        <v>35.12742700739324</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.819738796144494E-46</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-2028.8466034261119</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4075.6932068522237</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4124.293292506688</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1144.1130902630164</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1628.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1636.0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>190</v>
+      </c>
+      <c r="P20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1371667358830264</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.13289528408046725</v>
+      </c>
+      <c r="D21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5069.003951833469</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1052.2182726919943</v>
+      </c>
+      <c r="K21" t="n">
+        <v>994.1397158090889</v>
+      </c>
+      <c r="L21" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1422.0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P21" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1152.1805627492756</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1421.0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
